--- a/uploaded list/eforms-upload-lists (1).xlsx
+++ b/uploaded list/eforms-upload-lists (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miswrd\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ehrms\eoffice-git\eoffice\uploaded list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9762AE17-91E1-4353-9E86-0C3C1862456B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF901AB9-1E42-49EF-8EE6-1327C414260C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="14-01-2025" sheetId="1" r:id="rId1"/>
@@ -969,7 +969,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -996,24 +996,39 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1125,10 +1140,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1222,44 +1238,50 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4756,7 +4778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>1</v>
       </c>
@@ -4788,7 +4810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
         <v>2</v>
       </c>
@@ -4820,7 +4842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>3</v>
       </c>
@@ -4852,7 +4874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>4</v>
       </c>
@@ -4884,7 +4906,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <v>5</v>
       </c>
@@ -4916,7 +4938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>6</v>
       </c>
@@ -4948,7 +4970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>7</v>
       </c>
@@ -4980,7 +5002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>8</v>
       </c>
@@ -5012,7 +5034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>9</v>
       </c>
@@ -5044,7 +5066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>10</v>
       </c>
@@ -5076,7 +5098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>11</v>
       </c>
@@ -5108,7 +5130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>12</v>
       </c>
@@ -5140,7 +5162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>13</v>
       </c>
@@ -5172,7 +5194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>14</v>
       </c>
@@ -5204,7 +5226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>15</v>
       </c>
@@ -5236,7 +5258,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>16</v>
       </c>
@@ -5268,7 +5290,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
         <v>17</v>
       </c>
@@ -5300,7 +5322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
         <v>18</v>
       </c>
@@ -5332,7 +5354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <v>19</v>
       </c>
@@ -5364,7 +5386,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
         <v>20</v>
       </c>
@@ -5396,7 +5418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
         <v>21</v>
       </c>
@@ -5428,7 +5450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
         <v>22</v>
       </c>
@@ -5473,3520 +5495,3528 @@
   </sheetPr>
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A97"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.7109375" style="34" customWidth="1"/>
-    <col min="10" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="36" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="36" customWidth="1"/>
+    <col min="4" max="4" width="20" style="36" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="36" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.7109375" style="48" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="36" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="36" customWidth="1"/>
+    <col min="12" max="12" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="33" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="35" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="39">
+    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="37">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="39">
         <v>45838</v>
       </c>
-      <c r="E2" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="40" t="s">
+      <c r="E2" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="H2" s="42">
+      <c r="H2" s="40">
         <v>918319420650</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="36">
+      <c r="I2" s="40"/>
+      <c r="J2" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="41">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="39">
+    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="37">
         <v>2</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="39">
         <v>46112</v>
       </c>
-      <c r="E3" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="40" t="s">
+      <c r="E3" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="49" t="s">
         <v>279</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="40">
         <v>919826414399</v>
       </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="36">
+      <c r="I3" s="40"/>
+      <c r="J3" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="41">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="39">
+    <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="37">
         <v>3</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="39">
         <v>47208</v>
       </c>
-      <c r="E4" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="40" t="s">
+      <c r="E4" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="40">
         <v>917697124554</v>
       </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="36">
+      <c r="I4" s="40"/>
+      <c r="J4" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="41">
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="24" x14ac:dyDescent="0.25">
-      <c r="A5" s="39">
+    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="37">
         <v>4</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="39">
         <v>46203</v>
       </c>
-      <c r="E5" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="40" t="s">
+      <c r="E5" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="38" t="s">
         <v>299</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="40">
         <v>919424281778</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="36">
+      <c r="I5" s="40"/>
+      <c r="J5" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="41">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A6" s="39">
+    <row r="6" spans="1:12" s="42" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="37">
         <v>5</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="39">
         <v>47299</v>
       </c>
-      <c r="E6" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="40" t="s">
+      <c r="E6" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="38" t="s">
         <v>309</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="40">
         <v>919425593428</v>
       </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="36">
+      <c r="I6" s="40"/>
+      <c r="J6" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="41">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="39">
+    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="37">
         <v>6</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="39">
         <v>56522</v>
       </c>
-      <c r="E7" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="40" t="s">
+      <c r="E7" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="40">
         <v>918516065218</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="36">
+      <c r="I7" s="40"/>
+      <c r="J7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="39">
+    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="37">
         <v>7</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="39">
         <v>47483</v>
       </c>
-      <c r="E8" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="40" t="s">
+      <c r="E8" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="40">
         <v>919479263834</v>
       </c>
-      <c r="I8" s="42"/>
-      <c r="J8" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="36">
+      <c r="I8" s="40"/>
+      <c r="J8" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="39">
+    <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="37">
         <v>8</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="39">
         <v>53873</v>
       </c>
-      <c r="E9" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="40" t="s">
+      <c r="E9" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="38" t="s">
         <v>296</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="40">
         <v>919752005463</v>
       </c>
-      <c r="I9" s="42"/>
-      <c r="J9" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="36">
+      <c r="I9" s="40"/>
+      <c r="J9" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="39">
+    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="37">
         <v>9</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="39">
         <v>46265</v>
       </c>
-      <c r="E10" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="40" t="s">
+      <c r="E10" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="38" t="s">
         <v>297</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="40">
         <v>919893398244</v>
       </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="36">
+      <c r="I10" s="40"/>
+      <c r="J10" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
+    <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="37">
         <v>10</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="39">
         <v>48426</v>
       </c>
-      <c r="E11" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="40" t="s">
+      <c r="E11" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="40">
         <v>919340830289</v>
       </c>
-      <c r="I11" s="42"/>
-      <c r="J11" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="36">
+      <c r="I11" s="40"/>
+      <c r="J11" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="39">
+    <row r="12" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="37">
         <v>11</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="39">
         <v>49887</v>
       </c>
-      <c r="E12" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="40" t="s">
+      <c r="E12" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="40">
         <v>919425213362</v>
       </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="36">
+      <c r="I12" s="40"/>
+      <c r="J12" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39">
+    <row r="13" spans="1:12" s="42" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="37">
         <v>12</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="39">
         <v>53996</v>
       </c>
-      <c r="E13" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="40" t="s">
+      <c r="E13" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="40">
         <v>919179084355</v>
       </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="36">
+      <c r="I13" s="40"/>
+      <c r="J13" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="39">
-        <v>13</v>
-      </c>
-      <c r="B14" s="40" t="s">
+    <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="37">
+        <v>13</v>
+      </c>
+      <c r="B14" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="39">
         <v>54057</v>
       </c>
-      <c r="E14" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="40" t="s">
+      <c r="E14" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="40">
         <v>919893882927</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="36">
+      <c r="I14" s="40"/>
+      <c r="J14" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="39">
+    <row r="15" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="37">
         <v>14</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="39">
         <v>53873</v>
       </c>
-      <c r="E15" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="40" t="s">
+      <c r="E15" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="40">
         <v>919039811391</v>
       </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="36">
+      <c r="I15" s="40"/>
+      <c r="J15" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
+    <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="37">
         <v>15</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="39">
         <v>53570</v>
       </c>
-      <c r="E16" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="40" t="s">
+      <c r="E16" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="40">
         <v>919479187678</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="36">
+      <c r="I16" s="40"/>
+      <c r="J16" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="39">
-        <v>16</v>
-      </c>
-      <c r="B17" s="40" t="s">
+    <row r="17" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="37">
+        <v>16</v>
+      </c>
+      <c r="B17" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="39">
         <v>46873</v>
       </c>
-      <c r="E17" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="40" t="s">
+      <c r="E17" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="40">
         <v>919827115879</v>
       </c>
-      <c r="I17" s="42"/>
-      <c r="J17" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="36">
+      <c r="I17" s="40"/>
+      <c r="J17" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="39">
-        <v>17</v>
-      </c>
-      <c r="B18" s="40" t="s">
+    <row r="18" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="37">
+        <v>17</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="39">
         <v>50130</v>
       </c>
-      <c r="E18" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="40" t="s">
+      <c r="E18" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="40">
         <v>919893332761</v>
       </c>
-      <c r="I18" s="42"/>
-      <c r="J18" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" s="36">
+      <c r="I18" s="40"/>
+      <c r="J18" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="39">
+    <row r="19" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="37">
         <v>18</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="39">
         <v>57769</v>
       </c>
-      <c r="E19" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="40" t="s">
+      <c r="E19" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="40">
         <v>919098605762</v>
       </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="36">
+      <c r="I19" s="40"/>
+      <c r="J19" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39">
+    <row r="20" spans="1:12" s="42" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="37">
         <v>19</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="39">
         <v>57465</v>
       </c>
-      <c r="E20" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="40" t="s">
+      <c r="E20" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="40">
         <v>917770874747</v>
       </c>
-      <c r="I20" s="42"/>
-      <c r="J20" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="36">
+      <c r="I20" s="40"/>
+      <c r="J20" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="39">
+    <row r="21" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="37">
         <v>20</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="39">
         <v>57983</v>
       </c>
-      <c r="E21" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="40" t="s">
+      <c r="E21" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="40">
         <v>918770307916</v>
       </c>
-      <c r="I21" s="42"/>
-      <c r="J21" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="36">
+      <c r="I21" s="40"/>
+      <c r="J21" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="39">
+    <row r="22" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="37">
         <v>21</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="39">
         <v>57588</v>
       </c>
-      <c r="E22" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="40" t="s">
+      <c r="E22" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="G22" s="38" t="s">
         <v>300</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="40">
         <v>919179245625</v>
       </c>
-      <c r="I22" s="42"/>
-      <c r="J22" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22" s="36">
+      <c r="I22" s="40"/>
+      <c r="J22" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39">
+    <row r="23" spans="1:12" s="42" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="37">
         <v>22</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="44">
         <v>57983</v>
       </c>
-      <c r="E23" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="44" t="s">
+      <c r="E23" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="44" t="s">
+      <c r="G23" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="H23" s="46">
+      <c r="H23" s="45">
         <v>918839876092</v>
       </c>
-      <c r="I23" s="46"/>
-      <c r="J23" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="36">
+      <c r="I23" s="45"/>
+      <c r="J23" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="39">
+    <row r="24" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="37">
         <v>23</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="39">
         <v>57679</v>
       </c>
-      <c r="E24" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="40" t="s">
+      <c r="E24" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="40" t="s">
+      <c r="G24" s="38" t="s">
         <v>302</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H24" s="40">
         <v>919685251093</v>
       </c>
-      <c r="I24" s="42"/>
-      <c r="J24" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="36">
+      <c r="I24" s="40"/>
+      <c r="J24" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39">
+    <row r="25" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="37">
         <v>24</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="D25" s="41">
+      <c r="D25" s="39">
         <v>57649</v>
       </c>
-      <c r="E25" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="40" t="s">
+      <c r="E25" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="40" t="s">
+      <c r="G25" s="38" t="s">
         <v>303</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H25" s="40">
         <v>918959687664</v>
       </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L25" s="36">
+      <c r="I25" s="40"/>
+      <c r="J25" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39">
+    <row r="26" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="37">
         <v>25</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="39">
         <v>57465</v>
       </c>
-      <c r="E26" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="40" t="s">
+      <c r="E26" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="40" t="s">
+      <c r="G26" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="42" t="s">
+      <c r="H26" s="40" t="s">
         <v>306</v>
       </c>
-      <c r="I26" s="42"/>
-      <c r="J26" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L26" s="36">
+      <c r="I26" s="40"/>
+      <c r="J26" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39">
+    <row r="27" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="37">
         <v>26</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="41">
+      <c r="D27" s="39">
         <v>59079</v>
       </c>
-      <c r="E27" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="40" t="s">
+      <c r="E27" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="40" t="s">
+      <c r="G27" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="42">
+      <c r="H27" s="40">
         <v>919907347079</v>
       </c>
-      <c r="I27" s="42"/>
-      <c r="J27" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L27" s="36">
+      <c r="I27" s="40"/>
+      <c r="J27" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39">
+    <row r="28" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="37">
         <v>27</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="41">
+      <c r="D28" s="39">
         <v>55670</v>
       </c>
-      <c r="E28" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="40" t="s">
+      <c r="E28" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="40" t="s">
+      <c r="G28" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="42">
+      <c r="H28" s="40">
         <v>919039779068</v>
       </c>
-      <c r="I28" s="42"/>
-      <c r="J28" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28" s="36">
+      <c r="I28" s="40"/>
+      <c r="J28" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39">
+    <row r="29" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="37">
         <v>28</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="41">
+      <c r="D29" s="39">
         <v>56765</v>
       </c>
-      <c r="E29" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="40" t="s">
+      <c r="E29" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="40" t="s">
+      <c r="G29" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="H29" s="42">
+      <c r="H29" s="40">
         <v>917999445235</v>
       </c>
-      <c r="I29" s="42"/>
-      <c r="J29" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L29" s="36">
+      <c r="I29" s="40"/>
+      <c r="J29" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39">
+    <row r="30" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="37">
         <v>29</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="41">
+      <c r="D30" s="39">
         <v>58745</v>
       </c>
-      <c r="E30" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="40" t="s">
+      <c r="E30" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="40" t="s">
+      <c r="G30" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="H30" s="42">
+      <c r="H30" s="40">
         <v>918260443042</v>
       </c>
-      <c r="I30" s="42"/>
-      <c r="J30" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K30" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" s="36">
+      <c r="I30" s="40"/>
+      <c r="J30" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39">
+    <row r="31" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="37">
         <v>30</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="41">
+      <c r="D31" s="39">
         <v>58896</v>
       </c>
-      <c r="E31" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="40" t="s">
+      <c r="E31" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="40" t="s">
+      <c r="G31" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="H31" s="42">
+      <c r="H31" s="40">
         <v>919098650521</v>
       </c>
-      <c r="I31" s="42"/>
-      <c r="J31" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K31" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L31" s="36">
+      <c r="I31" s="40"/>
+      <c r="J31" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39">
+    <row r="32" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="37">
         <v>31</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="41">
+      <c r="D32" s="39">
         <v>56339</v>
       </c>
-      <c r="E32" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="40" t="s">
+      <c r="E32" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="40" t="s">
+      <c r="G32" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="H32" s="42">
+      <c r="H32" s="40">
         <v>917974564922</v>
       </c>
-      <c r="I32" s="42"/>
-      <c r="J32" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L32" s="36">
+      <c r="I32" s="40"/>
+      <c r="J32" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39">
+    <row r="33" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="37">
         <v>32</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="41">
+      <c r="D33" s="39">
         <v>55915</v>
       </c>
-      <c r="E33" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="40" t="s">
+      <c r="E33" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="40" t="s">
+      <c r="G33" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="H33" s="42">
+      <c r="H33" s="40">
         <v>917000506007</v>
       </c>
-      <c r="I33" s="42"/>
-      <c r="J33" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K33" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L33" s="36">
+      <c r="I33" s="40"/>
+      <c r="J33" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39">
+    <row r="34" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="37">
         <v>33</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="41">
+      <c r="D34" s="39">
         <v>56430</v>
       </c>
-      <c r="E34" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="40" t="s">
+      <c r="E34" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="40" t="s">
+      <c r="G34" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="H34" s="42">
+      <c r="H34" s="40">
         <v>918959989609</v>
       </c>
-      <c r="I34" s="42"/>
-      <c r="J34" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K34" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L34" s="36">
+      <c r="I34" s="40"/>
+      <c r="J34" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39">
+    <row r="35" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="37">
         <v>34</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="D35" s="41">
+      <c r="D35" s="39">
         <v>57741</v>
       </c>
-      <c r="E35" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="40" t="s">
+      <c r="E35" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="40" t="s">
+      <c r="G35" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="H35" s="42">
+      <c r="H35" s="40">
         <v>919009626213</v>
       </c>
-      <c r="I35" s="42"/>
-      <c r="J35" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K35" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L35" s="36">
+      <c r="I35" s="40"/>
+      <c r="J35" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39">
+    <row r="36" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="37">
         <v>35</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="D36" s="41">
+      <c r="D36" s="39">
         <v>58531</v>
       </c>
-      <c r="E36" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="40" t="s">
+      <c r="E36" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="40" t="s">
+      <c r="G36" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="H36" s="42">
+      <c r="H36" s="40">
         <v>917722816993</v>
       </c>
-      <c r="I36" s="42"/>
-      <c r="J36" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K36" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L36" s="36">
+      <c r="I36" s="40"/>
+      <c r="J36" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39">
+    <row r="37" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="37">
         <v>36</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="41">
+      <c r="D37" s="39">
         <v>57496</v>
       </c>
-      <c r="E37" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="40" t="s">
+      <c r="E37" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="40" t="s">
+      <c r="G37" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="H37" s="42">
+      <c r="H37" s="40">
         <v>918109651428</v>
       </c>
-      <c r="I37" s="42"/>
-      <c r="J37" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K37" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L37" s="36">
+      <c r="I37" s="40"/>
+      <c r="J37" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39">
+    <row r="38" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="37">
         <v>37</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="39">
         <v>58775</v>
       </c>
-      <c r="E38" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="40" t="s">
+      <c r="E38" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="40" t="s">
+      <c r="G38" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="H38" s="42">
+      <c r="H38" s="40">
         <v>917747968215</v>
       </c>
-      <c r="I38" s="42"/>
-      <c r="J38" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K38" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L38" s="36">
+      <c r="I38" s="40"/>
+      <c r="J38" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="39">
+    <row r="39" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="37">
         <v>38</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="C39" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="41">
+      <c r="D39" s="39">
         <v>58348</v>
       </c>
-      <c r="E39" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="40" t="s">
+      <c r="E39" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="40" t="s">
+      <c r="G39" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="H39" s="42">
+      <c r="H39" s="40">
         <v>919893824094</v>
       </c>
-      <c r="I39" s="42"/>
-      <c r="J39" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K39" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L39" s="36">
+      <c r="I39" s="40"/>
+      <c r="J39" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39">
+    <row r="40" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="37">
         <v>39</v>
       </c>
-      <c r="B40" s="40" t="s">
+      <c r="B40" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="D40" s="41">
+      <c r="D40" s="39">
         <v>57100</v>
       </c>
-      <c r="E40" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="40" t="s">
+      <c r="E40" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="40" t="s">
+      <c r="G40" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="H40" s="42">
+      <c r="H40" s="40">
         <v>916261734608</v>
       </c>
-      <c r="I40" s="42"/>
-      <c r="J40" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K40" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L40" s="36">
+      <c r="I40" s="40"/>
+      <c r="J40" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="39">
+    <row r="41" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="37">
         <v>40</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="D41" s="41">
+      <c r="D41" s="39">
         <v>58348</v>
       </c>
-      <c r="E41" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="40" t="s">
+      <c r="E41" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G41" s="40" t="s">
+      <c r="G41" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="H41" s="42">
+      <c r="H41" s="40">
         <v>917838782725</v>
       </c>
-      <c r="I41" s="42"/>
-      <c r="J41" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K41" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L41" s="36">
+      <c r="I41" s="40"/>
+      <c r="J41" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="39">
+    <row r="42" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="37">
         <v>41</v>
       </c>
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="D42" s="41">
+      <c r="D42" s="39">
         <v>49429</v>
       </c>
-      <c r="E42" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="40" t="s">
+      <c r="E42" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="40" t="s">
+      <c r="G42" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="H42" s="42">
+      <c r="H42" s="40">
         <v>918817833873</v>
       </c>
-      <c r="I42" s="42"/>
-      <c r="J42" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K42" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L42" s="36">
+      <c r="I42" s="40"/>
+      <c r="J42" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="39">
+    <row r="43" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="37">
         <v>42</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="41">
+      <c r="D43" s="39">
         <v>58195</v>
       </c>
-      <c r="E43" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="40" t="s">
+      <c r="E43" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="40" t="s">
+      <c r="G43" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="H43" s="42">
+      <c r="H43" s="40">
         <v>919806113122</v>
       </c>
-      <c r="I43" s="42"/>
-      <c r="J43" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K43" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L43" s="36">
+      <c r="I43" s="40"/>
+      <c r="J43" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="39">
+    <row r="44" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="37">
         <v>43</v>
       </c>
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="D44" s="41">
+      <c r="D44" s="39">
         <v>57284</v>
       </c>
-      <c r="E44" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="40" t="s">
+      <c r="E44" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="40" t="s">
+      <c r="G44" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="H44" s="42">
+      <c r="H44" s="40">
         <v>919406316097</v>
       </c>
-      <c r="I44" s="42"/>
-      <c r="J44" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K44" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L44" s="36">
+      <c r="I44" s="40"/>
+      <c r="J44" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="39">
+    <row r="45" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="37">
         <v>44</v>
       </c>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="D45" s="41">
+      <c r="D45" s="39">
         <v>45930</v>
       </c>
-      <c r="E45" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="40" t="s">
+      <c r="E45" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="40" t="s">
+      <c r="G45" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="H45" s="42">
+      <c r="H45" s="40">
         <v>919424270119</v>
       </c>
-      <c r="I45" s="42"/>
-      <c r="J45" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K45" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L45" s="36">
+      <c r="I45" s="40"/>
+      <c r="J45" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="39">
+    <row r="46" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="37">
         <v>45</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="C46" s="40" t="s">
+      <c r="C46" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="41">
+      <c r="D46" s="39">
         <v>57223</v>
       </c>
-      <c r="E46" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="40" t="s">
+      <c r="E46" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="40" t="s">
+      <c r="G46" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="H46" s="42">
+      <c r="H46" s="40">
         <v>919753280273</v>
       </c>
-      <c r="I46" s="42"/>
-      <c r="J46" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K46" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L46" s="36">
+      <c r="I46" s="40"/>
+      <c r="J46" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L46" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="39">
+    <row r="47" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="37">
         <v>46</v>
       </c>
-      <c r="B47" s="40" t="s">
+      <c r="B47" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="C47" s="40" t="s">
+      <c r="C47" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="41">
+      <c r="D47" s="39">
         <v>55915</v>
       </c>
-      <c r="E47" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="40" t="s">
+      <c r="E47" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="40" t="s">
+      <c r="G47" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="H47" s="42">
+      <c r="H47" s="40">
         <v>919713188988</v>
       </c>
-      <c r="I47" s="42"/>
-      <c r="J47" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K47" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L47" s="36">
+      <c r="I47" s="40"/>
+      <c r="J47" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="39">
+    <row r="48" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="37">
         <v>47</v>
       </c>
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="C48" s="40" t="s">
+      <c r="C48" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="D48" s="41">
+      <c r="D48" s="39">
         <v>46112</v>
       </c>
-      <c r="E48" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="40" t="s">
+      <c r="E48" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="40" t="s">
+      <c r="G48" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="H48" s="42">
+      <c r="H48" s="40">
         <v>919977897267</v>
       </c>
-      <c r="I48" s="42"/>
-      <c r="J48" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K48" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L48" s="36">
+      <c r="I48" s="40"/>
+      <c r="J48" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="39">
+    <row r="49" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="37">
         <v>48</v>
       </c>
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="C49" s="40" t="s">
+      <c r="C49" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="D49" s="41">
+      <c r="D49" s="39">
         <v>58134</v>
       </c>
-      <c r="E49" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="40" t="s">
+      <c r="E49" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="40" t="s">
+      <c r="G49" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="H49" s="42">
+      <c r="H49" s="40">
         <v>918770280483</v>
       </c>
-      <c r="I49" s="42"/>
-      <c r="J49" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K49" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L49" s="36">
+      <c r="I49" s="40"/>
+      <c r="J49" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="39">
+    <row r="50" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="37">
         <v>49</v>
       </c>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="C50" s="40" t="s">
+      <c r="C50" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D50" s="41">
+      <c r="D50" s="39">
         <v>56918</v>
       </c>
-      <c r="E50" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="40" t="s">
+      <c r="E50" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="G50" s="40" t="s">
+      <c r="G50" s="38" t="s">
         <v>298</v>
       </c>
-      <c r="H50" s="42">
+      <c r="H50" s="40">
         <v>918269720150</v>
       </c>
-      <c r="I50" s="42"/>
-      <c r="J50" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K50" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L50" s="36">
+      <c r="I50" s="40"/>
+      <c r="J50" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" s="41">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="39">
+    <row r="51" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="37">
         <v>50</v>
       </c>
-      <c r="B51" s="40" t="s">
+      <c r="B51" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="40" t="s">
+      <c r="C51" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="41">
+      <c r="D51" s="39">
         <v>56734</v>
       </c>
-      <c r="E51" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="40" t="s">
+      <c r="E51" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="G51" s="40" t="s">
+      <c r="G51" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H51" s="42">
+      <c r="H51" s="40">
         <v>917999326477</v>
       </c>
-      <c r="I51" s="42"/>
-      <c r="J51" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K51" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L51" s="36">
+      <c r="I51" s="40"/>
+      <c r="J51" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" s="41">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="39">
+    <row r="52" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="37">
         <v>51</v>
       </c>
-      <c r="B52" s="40" t="s">
+      <c r="B52" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="40" t="s">
+      <c r="C52" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="41">
+      <c r="D52" s="39">
         <v>57953</v>
       </c>
-      <c r="E52" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="40" t="s">
+      <c r="E52" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="G52" s="40" t="s">
+      <c r="G52" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="H52" s="42">
+      <c r="H52" s="40">
         <v>919981300226</v>
       </c>
-      <c r="I52" s="42"/>
-      <c r="J52" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K52" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L52" s="36">
+      <c r="I52" s="40"/>
+      <c r="J52" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" s="41">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="39">
+    <row r="53" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="37">
         <v>52</v>
       </c>
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="C53" s="40" t="s">
+      <c r="C53" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="D53" s="41">
+      <c r="D53" s="39">
         <v>56583</v>
       </c>
-      <c r="E53" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="40" t="s">
+      <c r="E53" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="G53" s="40" t="s">
+      <c r="G53" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="H53" s="42">
+      <c r="H53" s="40">
         <v>918103919821</v>
       </c>
-      <c r="I53" s="42"/>
-      <c r="J53" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K53" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L53" s="36">
+      <c r="I53" s="40"/>
+      <c r="J53" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="41">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="39">
+    <row r="54" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="37">
         <v>53</v>
       </c>
-      <c r="B54" s="40" t="s">
+      <c r="B54" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="40" t="s">
+      <c r="C54" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="41">
+      <c r="D54" s="39">
         <v>47726</v>
       </c>
-      <c r="E54" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="40" t="s">
+      <c r="E54" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="G54" s="40" t="s">
+      <c r="G54" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="H54" s="42">
+      <c r="H54" s="40">
         <v>919630995232</v>
       </c>
-      <c r="I54" s="42"/>
-      <c r="J54" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K54" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L54" s="36">
+      <c r="I54" s="40"/>
+      <c r="J54" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" s="41">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="39">
+    <row r="55" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="37">
         <v>54</v>
       </c>
-      <c r="B55" s="40" t="s">
+      <c r="B55" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="40" t="s">
+      <c r="C55" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="D55" s="41">
+      <c r="D55" s="39">
         <v>48334</v>
       </c>
-      <c r="E55" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="40" t="s">
+      <c r="E55" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="G55" s="40" t="s">
+      <c r="G55" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="H55" s="42">
+      <c r="H55" s="40">
         <v>919893386241</v>
       </c>
-      <c r="I55" s="42"/>
-      <c r="J55" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K55" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L55" s="36">
+      <c r="I55" s="40"/>
+      <c r="J55" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55" s="41">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="39">
+    <row r="56" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="37">
         <v>55</v>
       </c>
-      <c r="B56" s="40" t="s">
+      <c r="B56" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="40" t="s">
+      <c r="C56" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="D56" s="41">
+      <c r="D56" s="39">
         <v>46843</v>
       </c>
-      <c r="E56" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="40" t="s">
+      <c r="E56" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="G56" s="40" t="s">
+      <c r="G56" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="H56" s="42">
+      <c r="H56" s="40">
         <v>919630714253</v>
       </c>
-      <c r="I56" s="42"/>
-      <c r="J56" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K56" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L56" s="36">
+      <c r="I56" s="40"/>
+      <c r="J56" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56" s="41">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="39">
+    <row r="57" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="37">
         <v>56</v>
       </c>
-      <c r="B57" s="40" t="s">
+      <c r="B57" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="C57" s="40" t="s">
+      <c r="C57" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="D57" s="41">
+      <c r="D57" s="39">
         <v>45747</v>
       </c>
-      <c r="E57" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="40" t="s">
+      <c r="E57" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="G57" s="40" t="s">
+      <c r="G57" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="H57" s="42">
+      <c r="H57" s="40">
         <v>919691618599</v>
       </c>
-      <c r="I57" s="42"/>
-      <c r="J57" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K57" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L57" s="36">
+      <c r="I57" s="40"/>
+      <c r="J57" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L57" s="41">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="39">
+    <row r="58" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="37">
         <v>57</v>
       </c>
-      <c r="B58" s="40" t="s">
+      <c r="B58" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="40" t="s">
+      <c r="C58" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="41">
+      <c r="D58" s="39">
         <v>47057</v>
       </c>
-      <c r="E58" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="40" t="s">
+      <c r="E58" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G58" s="44" t="s">
+      <c r="G58" s="43" t="s">
         <v>277</v>
       </c>
-      <c r="H58" s="42">
+      <c r="H58" s="40">
         <v>918827257670</v>
       </c>
-      <c r="I58" s="42"/>
-      <c r="J58" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K58" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L58" s="36">
+      <c r="I58" s="40"/>
+      <c r="J58" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58" s="41">
         <v>6.1</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="39">
+    <row r="59" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="37">
         <v>58</v>
       </c>
-      <c r="B59" s="40" t="s">
+      <c r="B59" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="C59" s="40" t="s">
+      <c r="C59" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="D59" s="41">
+      <c r="D59" s="39">
         <v>47634</v>
       </c>
-      <c r="E59" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="40" t="s">
+      <c r="E59" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G59" s="40" t="s">
+      <c r="G59" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="H59" s="42">
+      <c r="H59" s="40">
         <v>919893531903</v>
       </c>
-      <c r="I59" s="42"/>
-      <c r="J59" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K59" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L59" s="36">
+      <c r="I59" s="40"/>
+      <c r="J59" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L59" s="41">
         <v>6.1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="39">
+    <row r="60" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="37">
         <v>59</v>
       </c>
-      <c r="B60" s="40" t="s">
+      <c r="B60" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="40" t="s">
+      <c r="C60" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="D60" s="41">
+      <c r="D60" s="39">
         <v>48304</v>
       </c>
-      <c r="E60" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="40" t="s">
+      <c r="E60" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="G60" s="40" t="s">
+      <c r="G60" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H60" s="42">
+      <c r="H60" s="40">
         <v>919669577117</v>
       </c>
-      <c r="I60" s="42"/>
-      <c r="J60" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K60" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L60" s="36">
+      <c r="I60" s="40"/>
+      <c r="J60" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L60" s="41">
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="39">
+    <row r="61" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="37">
         <v>60</v>
       </c>
-      <c r="B61" s="40" t="s">
+      <c r="B61" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="C61" s="40" t="s">
+      <c r="C61" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="D61" s="41">
+      <c r="D61" s="39">
         <v>48730</v>
       </c>
-      <c r="E61" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="40" t="s">
+      <c r="E61" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="G61" s="40" t="s">
+      <c r="G61" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="H61" s="42">
+      <c r="H61" s="40">
         <v>919826122648</v>
       </c>
-      <c r="I61" s="42"/>
-      <c r="J61" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K61" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L61" s="36">
+      <c r="I61" s="40"/>
+      <c r="J61" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L61" s="41">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="39">
+    <row r="62" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="37">
         <v>61</v>
       </c>
-      <c r="B62" s="44" t="s">
+      <c r="B62" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="C62" s="40" t="s">
+      <c r="C62" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D62" s="41">
+      <c r="D62" s="39">
         <v>48304</v>
       </c>
-      <c r="E62" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="40" t="s">
+      <c r="E62" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="G62" s="40" t="s">
+      <c r="G62" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="H62" s="42">
+      <c r="H62" s="40">
         <v>918435215592</v>
       </c>
-      <c r="I62" s="42"/>
-      <c r="J62" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K62" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L62" s="36">
+      <c r="I62" s="40"/>
+      <c r="J62" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L62" s="41">
         <v>7.1</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="39">
+    <row r="63" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="37">
         <v>62</v>
       </c>
-      <c r="B63" s="40" t="s">
+      <c r="B63" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C63" s="40" t="s">
+      <c r="C63" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="D63" s="41">
+      <c r="D63" s="39">
         <v>46752</v>
       </c>
-      <c r="E63" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="40" t="s">
+      <c r="E63" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="G63" s="40" t="s">
+      <c r="G63" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="H63" s="42">
+      <c r="H63" s="40">
         <v>919826935078</v>
       </c>
-      <c r="I63" s="42"/>
-      <c r="J63" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K63" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L63" s="36">
+      <c r="I63" s="40"/>
+      <c r="J63" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K63" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L63" s="41">
         <v>7.1</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="39">
+    <row r="64" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="37">
         <v>63</v>
       </c>
-      <c r="B64" s="40" t="s">
+      <c r="B64" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="C64" s="40" t="s">
+      <c r="C64" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="D64" s="41">
+      <c r="D64" s="39">
         <v>48244</v>
       </c>
-      <c r="E64" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="40" t="s">
+      <c r="E64" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="G64" s="40" t="s">
+      <c r="G64" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="H64" s="42">
+      <c r="H64" s="40">
         <v>919993851394</v>
       </c>
-      <c r="I64" s="42"/>
-      <c r="J64" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K64" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L64" s="36">
+      <c r="I64" s="40"/>
+      <c r="J64" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K64" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L64" s="41">
         <v>7.1</v>
       </c>
     </row>
-    <row r="65" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="39">
+    <row r="65" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="37">
         <v>64</v>
       </c>
-      <c r="B65" s="40" t="s">
+      <c r="B65" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="C65" s="40" t="s">
+      <c r="C65" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="D65" s="41">
+      <c r="D65" s="39">
         <v>47817</v>
       </c>
-      <c r="E65" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="40" t="s">
+      <c r="E65" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="G65" s="40" t="s">
+      <c r="G65" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="H65" s="42">
+      <c r="H65" s="40">
         <v>919424108311</v>
       </c>
-      <c r="I65" s="42"/>
-      <c r="J65" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K65" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L65" s="36">
+      <c r="I65" s="40"/>
+      <c r="J65" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L65" s="41">
         <v>7.1</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="39">
+    <row r="66" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="37">
         <v>65</v>
       </c>
-      <c r="B66" s="40" t="s">
+      <c r="B66" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="C66" s="40" t="s">
+      <c r="C66" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="D66" s="41">
+      <c r="D66" s="39">
         <v>47177</v>
       </c>
-      <c r="E66" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="40" t="s">
+      <c r="E66" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="G66" s="40" t="s">
+      <c r="G66" s="38" t="s">
         <v>288</v>
       </c>
-      <c r="H66" s="42">
+      <c r="H66" s="40">
         <v>919691510814</v>
       </c>
-      <c r="I66" s="42"/>
-      <c r="J66" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K66" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L66" s="36">
+      <c r="I66" s="40"/>
+      <c r="J66" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K66" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L66" s="41">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="39">
+    <row r="67" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="37">
         <v>66</v>
       </c>
-      <c r="B67" s="40" t="s">
+      <c r="B67" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C67" s="40" t="s">
+      <c r="C67" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="D67" s="41">
+      <c r="D67" s="39">
         <v>47208</v>
       </c>
-      <c r="E67" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="40" t="s">
+      <c r="E67" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="G67" s="40" t="s">
+      <c r="G67" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="H67" s="42">
+      <c r="H67" s="40">
         <v>919893644364</v>
       </c>
-      <c r="I67" s="42"/>
-      <c r="J67" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K67" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L67" s="36">
+      <c r="I67" s="40"/>
+      <c r="J67" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K67" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L67" s="41">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="39">
+    <row r="68" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="37">
         <v>67</v>
       </c>
-      <c r="B68" s="40" t="s">
+      <c r="B68" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="40" t="s">
+      <c r="C68" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="D68" s="41">
+      <c r="D68" s="39">
         <v>49003</v>
       </c>
-      <c r="E68" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" s="40" t="s">
+      <c r="E68" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="G68" s="40" t="s">
+      <c r="G68" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="H68" s="42">
+      <c r="H68" s="40">
         <v>917000051755</v>
       </c>
-      <c r="I68" s="42"/>
-      <c r="J68" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K68" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L68" s="36">
+      <c r="I68" s="40"/>
+      <c r="J68" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K68" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L68" s="41">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="39">
+    <row r="69" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="37">
         <v>68</v>
       </c>
-      <c r="B69" s="40" t="s">
+      <c r="B69" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="C69" s="40" t="s">
+      <c r="C69" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="D69" s="41">
+      <c r="D69" s="39">
         <v>49521</v>
       </c>
-      <c r="E69" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="40" t="s">
+      <c r="E69" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="G69" s="40" t="s">
+      <c r="G69" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="H69" s="42">
+      <c r="H69" s="40">
         <v>918817090012</v>
       </c>
-      <c r="I69" s="42"/>
-      <c r="J69" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K69" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L69" s="36">
+      <c r="I69" s="40"/>
+      <c r="J69" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K69" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L69" s="41">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="39">
+    <row r="70" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="37">
         <v>69</v>
       </c>
-      <c r="B70" s="40" t="s">
+      <c r="B70" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="C70" s="40" t="s">
+      <c r="C70" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="D70" s="41">
+      <c r="D70" s="39">
         <v>46934</v>
       </c>
-      <c r="E70" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="40" t="s">
+      <c r="E70" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="G70" s="40" t="s">
+      <c r="G70" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="H70" s="42">
+      <c r="H70" s="40">
         <v>919713120118</v>
       </c>
-      <c r="I70" s="42"/>
-      <c r="J70" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K70" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L70" s="36">
+      <c r="I70" s="40"/>
+      <c r="J70" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K70" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L70" s="41">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="39">
+    <row r="71" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="37">
         <v>70</v>
       </c>
-      <c r="B71" s="40" t="s">
+      <c r="B71" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="C71" s="40" t="s">
+      <c r="C71" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="D71" s="41">
+      <c r="D71" s="39">
         <v>47848</v>
       </c>
-      <c r="E71" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="40" t="s">
+      <c r="E71" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="G71" s="40" t="s">
+      <c r="G71" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="H71" s="42">
+      <c r="H71" s="40">
         <v>919926684071</v>
       </c>
-      <c r="I71" s="42"/>
-      <c r="J71" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K71" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L71" s="36">
+      <c r="I71" s="40"/>
+      <c r="J71" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K71" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L71" s="41">
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="39">
+    <row r="72" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="37">
         <v>71</v>
       </c>
-      <c r="B72" s="40" t="s">
+      <c r="B72" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="C72" s="40" t="s">
+      <c r="C72" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="D72" s="41">
+      <c r="D72" s="39">
         <v>53478</v>
       </c>
-      <c r="E72" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="40" t="s">
+      <c r="E72" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G72" s="40" t="s">
+      <c r="G72" s="38" t="s">
         <v>289</v>
       </c>
-      <c r="H72" s="42">
+      <c r="H72" s="40">
         <v>919301512485</v>
       </c>
-      <c r="I72" s="42"/>
-      <c r="J72" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K72" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L72" s="36">
+      <c r="I72" s="40"/>
+      <c r="J72" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K72" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L72" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="39">
+    <row r="73" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="37">
         <v>72</v>
       </c>
-      <c r="B73" s="40" t="s">
+      <c r="B73" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="40" t="s">
+      <c r="C73" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D73" s="41">
+      <c r="D73" s="39">
         <v>48395</v>
       </c>
-      <c r="E73" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" s="40" t="s">
+      <c r="E73" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G73" s="40" t="s">
+      <c r="G73" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="H73" s="42">
+      <c r="H73" s="40">
         <v>919009448358</v>
       </c>
-      <c r="I73" s="42"/>
-      <c r="J73" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K73" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L73" s="36">
+      <c r="I73" s="40"/>
+      <c r="J73" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K73" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L73" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="39">
+    <row r="74" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="37">
         <v>73</v>
       </c>
-      <c r="B74" s="40" t="s">
+      <c r="B74" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C74" s="40" t="s">
+      <c r="C74" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="D74" s="41">
+      <c r="D74" s="39">
         <v>48395</v>
       </c>
-      <c r="E74" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="40" t="s">
+      <c r="E74" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G74" s="40" t="s">
+      <c r="G74" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="H74" s="42">
+      <c r="H74" s="40">
         <v>919926624218</v>
       </c>
-      <c r="I74" s="42"/>
-      <c r="J74" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K74" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L74" s="36">
+      <c r="I74" s="40"/>
+      <c r="J74" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K74" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L74" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="39">
+    <row r="75" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="37">
         <v>74</v>
       </c>
-      <c r="B75" s="40" t="s">
+      <c r="B75" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C75" s="40" t="s">
+      <c r="C75" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="41">
+      <c r="D75" s="39">
         <v>46691</v>
       </c>
-      <c r="E75" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="40" t="s">
+      <c r="E75" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G75" s="40" t="s">
+      <c r="G75" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="H75" s="42">
+      <c r="H75" s="40">
         <v>917898979561</v>
       </c>
-      <c r="I75" s="42"/>
-      <c r="J75" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K75" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L75" s="36">
+      <c r="I75" s="40"/>
+      <c r="J75" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K75" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L75" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="39">
+    <row r="76" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="37">
         <v>75</v>
       </c>
-      <c r="B76" s="40" t="s">
+      <c r="B76" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="C76" s="40" t="s">
+      <c r="C76" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="D76" s="41">
+      <c r="D76" s="39">
         <v>48822</v>
       </c>
-      <c r="E76" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="40" t="s">
+      <c r="E76" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G76" s="40" t="s">
+      <c r="G76" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="H76" s="42">
+      <c r="H76" s="40">
         <v>919406202691</v>
       </c>
-      <c r="I76" s="42"/>
-      <c r="J76" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K76" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L76" s="36">
+      <c r="I76" s="40"/>
+      <c r="J76" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K76" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L76" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="39">
+    <row r="77" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="37">
         <v>76</v>
       </c>
-      <c r="B77" s="40" t="s">
+      <c r="B77" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="C77" s="40" t="s">
+      <c r="C77" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="D77" s="41">
+      <c r="D77" s="39">
         <v>46630</v>
       </c>
-      <c r="E77" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="40" t="s">
+      <c r="E77" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G77" s="40" t="s">
+      <c r="G77" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="H77" s="42">
+      <c r="H77" s="40">
         <v>919165378039</v>
       </c>
-      <c r="I77" s="42"/>
-      <c r="J77" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K77" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L77" s="36">
+      <c r="I77" s="40"/>
+      <c r="J77" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K77" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L77" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="39">
+    <row r="78" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="37">
         <v>77</v>
       </c>
-      <c r="B78" s="40" t="s">
+      <c r="B78" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="C78" s="40" t="s">
+      <c r="C78" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="D78" s="41">
+      <c r="D78" s="39">
         <v>48518</v>
       </c>
-      <c r="E78" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="40" t="s">
+      <c r="E78" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G78" s="40" t="s">
+      <c r="G78" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="H78" s="42">
+      <c r="H78" s="40">
         <v>917587347336</v>
       </c>
-      <c r="I78" s="42"/>
-      <c r="J78" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K78" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L78" s="36">
+      <c r="I78" s="40"/>
+      <c r="J78" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K78" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L78" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="39">
+    <row r="79" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="37">
         <v>78</v>
       </c>
-      <c r="B79" s="40" t="s">
+      <c r="B79" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="C79" s="40" t="s">
+      <c r="C79" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="D79" s="41">
+      <c r="D79" s="39">
         <v>49979</v>
       </c>
-      <c r="E79" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="40" t="s">
+      <c r="E79" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G79" s="40" t="s">
+      <c r="G79" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="H79" s="42">
+      <c r="H79" s="40">
         <v>919424226013</v>
       </c>
-      <c r="I79" s="42"/>
-      <c r="J79" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K79" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L79" s="36">
+      <c r="I79" s="40"/>
+      <c r="J79" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K79" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L79" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="39">
+    <row r="80" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="37">
         <v>79</v>
       </c>
-      <c r="B80" s="40" t="s">
+      <c r="B80" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C80" s="40" t="s">
+      <c r="C80" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="D80" s="41">
+      <c r="D80" s="39">
         <v>48579</v>
       </c>
-      <c r="E80" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="40" t="s">
+      <c r="E80" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G80" s="40" t="s">
+      <c r="G80" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="H80" s="42">
+      <c r="H80" s="40">
         <v>919617041434</v>
       </c>
-      <c r="I80" s="42"/>
-      <c r="J80" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K80" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L80" s="36">
+      <c r="I80" s="40"/>
+      <c r="J80" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K80" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L80" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="39">
+    <row r="81" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="37">
         <v>80</v>
       </c>
-      <c r="B81" s="40" t="s">
+      <c r="B81" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="C81" s="40" t="s">
+      <c r="C81" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="D81" s="41">
+      <c r="D81" s="39">
         <v>46022</v>
       </c>
-      <c r="E81" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="40" t="s">
+      <c r="E81" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G81" s="40" t="s">
+      <c r="G81" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="H81" s="42">
+      <c r="H81" s="40">
         <v>919617269000</v>
       </c>
-      <c r="I81" s="42"/>
-      <c r="J81" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K81" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L81" s="36">
+      <c r="I81" s="40"/>
+      <c r="J81" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K81" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L81" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="39">
+    <row r="82" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="37">
         <v>81</v>
       </c>
-      <c r="B82" s="40" t="s">
+      <c r="B82" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="C82" s="40" t="s">
+      <c r="C82" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="D82" s="41">
+      <c r="D82" s="39">
         <v>47421</v>
       </c>
-      <c r="E82" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="40" t="s">
+      <c r="E82" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G82" s="40" t="s">
+      <c r="G82" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="H82" s="42">
+      <c r="H82" s="40">
         <v>919424133466</v>
       </c>
-      <c r="I82" s="42"/>
-      <c r="J82" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K82" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L82" s="36">
+      <c r="I82" s="40"/>
+      <c r="J82" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K82" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L82" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="39">
+    <row r="83" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="37">
         <v>82</v>
       </c>
-      <c r="B83" s="40" t="s">
+      <c r="B83" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="C83" s="40" t="s">
+      <c r="C83" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="D83" s="41">
+      <c r="D83" s="39">
         <v>52382</v>
       </c>
-      <c r="E83" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="40" t="s">
+      <c r="E83" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G83" s="40" t="s">
+      <c r="G83" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="H83" s="42">
+      <c r="H83" s="40">
         <v>919669651620</v>
       </c>
-      <c r="I83" s="42"/>
-      <c r="J83" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K83" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L83" s="36">
+      <c r="I83" s="40"/>
+      <c r="J83" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K83" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L83" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="39">
+    <row r="84" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="37">
         <v>83</v>
       </c>
-      <c r="B84" s="40" t="s">
+      <c r="B84" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="C84" s="40" t="s">
+      <c r="C84" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="D84" s="41">
+      <c r="D84" s="39">
         <v>50313</v>
       </c>
-      <c r="E84" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="40" t="s">
+      <c r="E84" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G84" s="40" t="s">
+      <c r="G84" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="H84" s="42">
+      <c r="H84" s="40">
         <v>919826415877</v>
       </c>
-      <c r="I84" s="42"/>
-      <c r="J84" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K84" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L84" s="36">
+      <c r="I84" s="40"/>
+      <c r="J84" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K84" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L84" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="39">
+    <row r="85" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="37">
         <v>84</v>
       </c>
-      <c r="B85" s="40" t="s">
+      <c r="B85" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C85" s="40" t="s">
+      <c r="C85" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="D85" s="41">
+      <c r="D85" s="39">
         <v>48395</v>
       </c>
-      <c r="E85" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="40" t="s">
+      <c r="E85" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G85" s="40" t="s">
+      <c r="G85" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="H85" s="42">
+      <c r="H85" s="40">
         <v>919907985891</v>
       </c>
-      <c r="I85" s="42"/>
-      <c r="J85" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K85" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L85" s="36">
+      <c r="I85" s="40"/>
+      <c r="J85" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K85" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L85" s="41">
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="39">
+    <row r="86" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="37">
         <v>85</v>
       </c>
-      <c r="B86" s="40" t="s">
+      <c r="B86" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="C86" s="40" t="s">
+      <c r="C86" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D86" s="41">
+      <c r="D86" s="39">
         <v>50525</v>
       </c>
-      <c r="E86" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="40" t="s">
+      <c r="E86" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G86" s="40" t="s">
+      <c r="G86" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="H86" s="42">
+      <c r="H86" s="40">
         <v>918827885532</v>
       </c>
-      <c r="I86" s="42"/>
-      <c r="J86" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K86" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L86" s="36">
+      <c r="I86" s="40"/>
+      <c r="J86" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K86" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L86" s="41">
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="39">
+    <row r="87" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="37">
         <v>86</v>
       </c>
-      <c r="B87" s="40" t="s">
+      <c r="B87" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="C87" s="40" t="s">
+      <c r="C87" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="D87" s="41">
+      <c r="D87" s="39">
         <v>51925</v>
       </c>
-      <c r="E87" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="40" t="s">
+      <c r="E87" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G87" s="40" t="s">
+      <c r="G87" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="H87" s="42">
+      <c r="H87" s="40">
         <v>917694860476</v>
       </c>
-      <c r="I87" s="42"/>
-      <c r="J87" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K87" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L87" s="36">
+      <c r="I87" s="40"/>
+      <c r="J87" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K87" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L87" s="41">
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="39">
+    <row r="88" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="37">
         <v>87</v>
       </c>
-      <c r="B88" s="40" t="s">
+      <c r="B88" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="C88" s="40" t="s">
+      <c r="C88" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="D88" s="41">
+      <c r="D88" s="39">
         <v>52047</v>
       </c>
-      <c r="E88" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" s="40" t="s">
+      <c r="E88" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G88" s="40" t="s">
+      <c r="G88" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="H88" s="42">
+      <c r="H88" s="40">
         <v>917225079933</v>
       </c>
-      <c r="I88" s="42"/>
-      <c r="J88" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K88" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L88" s="36">
+      <c r="I88" s="40"/>
+      <c r="J88" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K88" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L88" s="41">
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="39">
+    <row r="89" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="37">
         <v>88</v>
       </c>
-      <c r="B89" s="40" t="s">
+      <c r="B89" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="C89" s="40" t="s">
+      <c r="C89" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="D89" s="41">
+      <c r="D89" s="39">
         <v>55487</v>
       </c>
-      <c r="E89" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" s="40" t="s">
+      <c r="E89" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G89" s="40" t="s">
+      <c r="G89" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="H89" s="42">
+      <c r="H89" s="40">
         <v>918818811999</v>
       </c>
-      <c r="I89" s="42"/>
-      <c r="J89" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K89" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L89" s="36">
+      <c r="I89" s="40"/>
+      <c r="J89" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K89" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L89" s="41">
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="39">
+    <row r="90" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="37">
         <v>89</v>
       </c>
-      <c r="B90" s="40" t="s">
+      <c r="B90" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C90" s="40" t="s">
+      <c r="C90" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="41">
+      <c r="D90" s="39">
         <v>54819</v>
       </c>
-      <c r="E90" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F90" s="40" t="s">
+      <c r="E90" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G90" s="40" t="s">
+      <c r="G90" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="H90" s="42">
+      <c r="H90" s="40">
         <v>917999471114</v>
       </c>
-      <c r="I90" s="42"/>
-      <c r="J90" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K90" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L90" s="36">
+      <c r="I90" s="40"/>
+      <c r="J90" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K90" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L90" s="41">
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="39">
+    <row r="91" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="37">
         <v>90</v>
       </c>
-      <c r="B91" s="40" t="s">
+      <c r="B91" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="C91" s="40" t="s">
+      <c r="C91" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="D91" s="41">
+      <c r="D91" s="39">
         <v>50283</v>
       </c>
-      <c r="E91" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" s="40" t="s">
+      <c r="E91" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G91" s="40" t="s">
+      <c r="G91" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="H91" s="42">
+      <c r="H91" s="40">
         <v>919165186652</v>
       </c>
-      <c r="I91" s="42"/>
-      <c r="J91" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K91" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L91" s="36">
+      <c r="I91" s="40"/>
+      <c r="J91" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K91" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L91" s="41">
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="39">
+    <row r="92" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="37">
         <v>91</v>
       </c>
-      <c r="B92" s="40" t="s">
+      <c r="B92" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="C92" s="40" t="s">
+      <c r="C92" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D92" s="41">
+      <c r="D92" s="39">
         <v>57100</v>
       </c>
-      <c r="E92" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="40" t="s">
+      <c r="E92" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G92" s="40" t="s">
+      <c r="G92" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="H92" s="42">
+      <c r="H92" s="40">
         <v>918516019977</v>
       </c>
-      <c r="I92" s="42"/>
-      <c r="J92" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K92" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L92" s="36">
+      <c r="I92" s="40"/>
+      <c r="J92" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K92" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L92" s="41">
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="39">
+    <row r="93" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="37">
         <v>92</v>
       </c>
-      <c r="B93" s="40" t="s">
+      <c r="B93" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="40" t="s">
+      <c r="C93" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="D93" s="41">
+      <c r="D93" s="39">
         <v>57618</v>
       </c>
-      <c r="E93" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" s="40" t="s">
+      <c r="E93" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G93" s="40" t="s">
+      <c r="G93" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="H93" s="42">
+      <c r="H93" s="40">
         <v>919752958287</v>
       </c>
-      <c r="I93" s="42"/>
-      <c r="J93" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K93" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L93" s="36">
+      <c r="I93" s="40"/>
+      <c r="J93" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K93" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L93" s="41">
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="39">
+    <row r="94" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="37">
         <v>93</v>
       </c>
-      <c r="B94" s="40" t="s">
+      <c r="B94" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C94" s="40" t="s">
+      <c r="C94" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D94" s="41">
+      <c r="D94" s="39">
         <v>47695</v>
       </c>
-      <c r="E94" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="40" t="s">
+      <c r="E94" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="G94" s="40" t="s">
+      <c r="G94" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="H94" s="42">
+      <c r="H94" s="40">
         <v>919893207828</v>
       </c>
-      <c r="I94" s="42"/>
-      <c r="J94" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K94" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L94" s="36">
+      <c r="I94" s="40"/>
+      <c r="J94" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K94" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L94" s="41">
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="39">
+    <row r="95" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="37">
         <v>94</v>
       </c>
-      <c r="B95" s="44" t="s">
+      <c r="B95" s="43" t="s">
         <v>281</v>
       </c>
-      <c r="C95" s="44" t="s">
+      <c r="C95" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="D95" s="45">
+      <c r="D95" s="44">
         <v>50040</v>
       </c>
-      <c r="E95" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="F95" s="44" t="s">
+      <c r="E95" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="G95" s="44" t="s">
+      <c r="G95" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="H95" s="46">
+      <c r="H95" s="45">
         <v>918770548966</v>
       </c>
-      <c r="I95" s="46"/>
-      <c r="J95" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="K95" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="L95" s="36">
+      <c r="I95" s="45"/>
+      <c r="J95" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="K95" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="L95" s="41">
         <v>12.1</v>
       </c>
     </row>
-    <row r="96" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="39">
+    <row r="96" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="37">
         <v>95</v>
       </c>
-      <c r="B96" s="44" t="s">
+      <c r="B96" s="43" t="s">
         <v>304</v>
       </c>
-      <c r="C96" s="44" t="s">
+      <c r="C96" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="D96" s="45">
+      <c r="D96" s="44">
         <v>58471</v>
       </c>
-      <c r="E96" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="44" t="s">
+      <c r="E96" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="G96" s="44" t="s">
+      <c r="G96" s="43" t="s">
         <v>305</v>
       </c>
-      <c r="H96" s="46">
+      <c r="H96" s="45">
         <v>919589809438</v>
       </c>
-      <c r="I96" s="46"/>
-      <c r="J96" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="K96" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="L96" s="36">
+      <c r="I96" s="45"/>
+      <c r="J96" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="K96" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="L96" s="41">
         <v>12.1</v>
       </c>
     </row>
-    <row r="97" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="39">
+    <row r="97" spans="1:12" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="37">
         <v>96</v>
       </c>
-      <c r="B97" s="44" t="s">
+      <c r="B97" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="C97" s="44" t="s">
+      <c r="C97" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="D97" s="45">
+      <c r="D97" s="44">
         <v>47391</v>
       </c>
-      <c r="E97" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="F97" s="44" t="s">
+      <c r="E97" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="G97" s="44" t="s">
+      <c r="G97" s="43" t="s">
         <v>294</v>
       </c>
-      <c r="H97" s="46">
+      <c r="H97" s="45">
         <v>919977910457</v>
       </c>
-      <c r="I97" s="46"/>
-      <c r="J97" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="K97" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="L97" s="36">
+      <c r="I97" s="45"/>
+      <c r="J97" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="K97" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="L97" s="41">
         <v>12.2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="G13" r:id="rId1" xr:uid="{8C194EB9-F386-46E2-9C8B-67C685C07404}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{5EAC1008-0C03-4CA4-84D0-D29244A44761}"/>
+    <hyperlink ref="G11" r:id="rId3" xr:uid="{F9EE7962-1F15-47F4-ABBB-12564E9A1B21}"/>
+    <hyperlink ref="G2" r:id="rId4" xr:uid="{5B9B4FBC-0DA9-4CBB-B49F-1AB9A493BFDD}"/>
+  </hyperlinks>
+  <pageMargins left="0.25" right="0.25" top="0.28999999999999998" bottom="0.2" header="0.3" footer="0.2"/>
+  <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="landscape" r:id="rId5"/>
 </worksheet>
 </file>
--- a/uploaded list/eforms-upload-lists (1).xlsx
+++ b/uploaded list/eforms-upload-lists (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ehrms\eoffice-git\eoffice\uploaded list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF901AB9-1E42-49EF-8EE6-1327C414260C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C736BE-ADDC-4BAB-97E9-A5C8289FB641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5496,7 +5496,7 @@
   <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
